--- a/tests/bin/OpenRefine_exports/1_JR1_2017.xlsx
+++ b/tests/bin/OpenRefine_exports/1_JR1_2017.xlsx
@@ -48,12 +48,6 @@
     <t>Data_Type</t>
   </si>
   <si>
-    <t>R4_Month</t>
-  </si>
-  <si>
-    <t>R4_Count</t>
-  </si>
-  <si>
     <t>Library Journal</t>
   </si>
   <si>
@@ -97,6 +91,12 @@
   </si>
   <si>
     <t>Article</t>
+  </si>
+  <si>
+    <t>Usage_Date</t>
+  </si>
+  <si>
+    <t>Usage_Count</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="K1" sqref="K1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,45 +455,45 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K2" s="1">
         <v>42552</v>
@@ -504,34 +504,34 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K3" s="1">
         <v>42583</v>
@@ -542,34 +542,34 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K4" s="1">
         <v>42614</v>
@@ -580,34 +580,34 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K5" s="1">
         <v>42644</v>
@@ -618,34 +618,34 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K6" s="1">
         <v>42675</v>
@@ -656,34 +656,34 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K7" s="1">
         <v>42705</v>
@@ -694,34 +694,34 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K8" s="1">
         <v>42736</v>
@@ -732,34 +732,34 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K9" s="1">
         <v>42767</v>
@@ -770,34 +770,34 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K10" s="1">
         <v>42795</v>
@@ -808,34 +808,34 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K11" s="1">
         <v>42826</v>
@@ -846,34 +846,34 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K12" s="1">
         <v>42856</v>
@@ -884,34 +884,34 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K13" s="1">
         <v>42887</v>
@@ -922,34 +922,34 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" t="s">
-        <v>19</v>
-      </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K14" s="1">
         <v>42614</v>
@@ -960,34 +960,34 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" t="s">
-        <v>19</v>
-      </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K15" s="1">
         <v>42644</v>
@@ -998,34 +998,34 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" t="s">
-        <v>19</v>
-      </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K16" s="1">
         <v>42767</v>
@@ -1036,34 +1036,34 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" t="s">
-        <v>19</v>
-      </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K17" s="1">
         <v>42795</v>
@@ -1074,34 +1074,34 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" t="s">
-        <v>22</v>
-      </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K18" s="1">
         <v>42552</v>
@@ -1112,34 +1112,34 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" t="s">
-        <v>22</v>
-      </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K19" s="1">
         <v>42644</v>
@@ -1150,34 +1150,34 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" t="s">
-        <v>22</v>
-      </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K20" s="1">
         <v>42675</v>
@@ -1188,34 +1188,34 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" t="s">
-        <v>22</v>
-      </c>
       <c r="G21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K21" s="1">
         <v>42705</v>
@@ -1226,34 +1226,34 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" t="s">
-        <v>22</v>
-      </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K22" s="1">
         <v>42767</v>
@@ -1264,34 +1264,34 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" t="s">
-        <v>22</v>
-      </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K23" s="1">
         <v>42795</v>
@@ -1302,34 +1302,34 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
         <v>20</v>
       </c>
-      <c r="B24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" t="s">
-        <v>22</v>
-      </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K24" s="1">
         <v>42826</v>
@@ -1340,34 +1340,34 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
         <v>20</v>
       </c>
-      <c r="B25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" t="s">
-        <v>22</v>
-      </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K25" s="1">
         <v>42856</v>
@@ -1378,34 +1378,34 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
         <v>20</v>
       </c>
-      <c r="B26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" t="s">
-        <v>22</v>
-      </c>
       <c r="G26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K26" s="1">
         <v>42887</v>
